--- a/Reports/ZacksRank/TanzyInvested.xlsx
+++ b/Reports/ZacksRank/TanzyInvested.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i852841/_Codes/_Personal/StockRankingCrawler/Reports/ZacksRank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EBAA1D-3D82-DF46-B8E6-AC17098118D4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{9B5D36D8-AD1C-F24B-B6E2-347BA76DBF47}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="19600" windowWidth="33600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="data" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3579" uniqueCount="559">
   <si>
     <t>SQ</t>
   </si>
@@ -1499,12 +1499,211 @@
   </si>
   <si>
     <t>Hold       ($55.16)</t>
+  </si>
+  <si>
+    <t>Jun_15</t>
+  </si>
+  <si>
+    <t>Hold       ($64.54)</t>
+  </si>
+  <si>
+    <t>Buy        ($43.30)</t>
+  </si>
+  <si>
+    <t>Hold       ($78.92)</t>
+  </si>
+  <si>
+    <t>Sell       ($61.89)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.85)</t>
+  </si>
+  <si>
+    <t>Buy        ($23.26)</t>
+  </si>
+  <si>
+    <t>Sell       ($36.40)</t>
+  </si>
+  <si>
+    <t>Hold       ($38.25)</t>
+  </si>
+  <si>
+    <t>Hold       ($6.42)</t>
+  </si>
+  <si>
+    <t>Hold       ($13.30)</t>
+  </si>
+  <si>
+    <t>Hold       ($33.17)</t>
+  </si>
+  <si>
+    <t>UN         ($4.28)</t>
+  </si>
+  <si>
+    <t>Hold       ($109.68)</t>
+  </si>
+  <si>
+    <t>Sell       ($8.29)</t>
+  </si>
+  <si>
+    <t>Hold       ($207.32)</t>
+  </si>
+  <si>
+    <t>Hold       ($16.34)</t>
+  </si>
+  <si>
+    <t>Hold       ($55.11)</t>
+  </si>
+  <si>
+    <t>Hold       ($11.88)</t>
+  </si>
+  <si>
+    <t>Buy        ($43.91)</t>
+  </si>
+  <si>
+    <t>Hold       ($23.03)</t>
+  </si>
+  <si>
+    <t>Hold       ($15.98)</t>
+  </si>
+  <si>
+    <t>Hold       ($16.78)</t>
+  </si>
+  <si>
+    <t>Hold       ($93.36)</t>
+  </si>
+  <si>
+    <t>Buy        ($121.18)</t>
+  </si>
+  <si>
+    <t>Hold       ($84.35)</t>
+  </si>
+  <si>
+    <t>Hold       ($29.28)</t>
+  </si>
+  <si>
+    <t>Hold       ($43.59)</t>
+  </si>
+  <si>
+    <t>Hold       ($13.91)</t>
+  </si>
+  <si>
+    <t>Hold       ($100.13)</t>
+  </si>
+  <si>
+    <t>Hold       ($36.36)</t>
+  </si>
+  <si>
+    <t>Hold       ($67.23)</t>
+  </si>
+  <si>
+    <t>Hold       ($54.99)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Jun_17</t>
+  </si>
+  <si>
+    <t>Sell       ($10.85)</t>
+  </si>
+  <si>
+    <t>Jun_18</t>
+  </si>
+  <si>
+    <t>Hold       ($66.20)</t>
+  </si>
+  <si>
+    <t>Buy        ($44.93)</t>
+  </si>
+  <si>
+    <t>Hold       ($79.07)</t>
+  </si>
+  <si>
+    <t>Sell       ($63.71)</t>
+  </si>
+  <si>
+    <t>Sell       ($10.99)</t>
+  </si>
+  <si>
+    <t>Buy        ($23.05)</t>
+  </si>
+  <si>
+    <t>Sell       ($36.36)</t>
+  </si>
+  <si>
+    <t>Hold       ($38.73)</t>
+  </si>
+  <si>
+    <t>Hold       ($6.47)</t>
+  </si>
+  <si>
+    <t>Hold       ($13.20)</t>
+  </si>
+  <si>
+    <t>Hold       ($32.19)</t>
+  </si>
+  <si>
+    <t>Hold       ($107.31)</t>
+  </si>
+  <si>
+    <t>Sell       ($8.68)</t>
+  </si>
+  <si>
+    <t>Hold       ($206.21)</t>
+  </si>
+  <si>
+    <t>Hold       ($17.11)</t>
+  </si>
+  <si>
+    <t>Hold       ($53.22)</t>
+  </si>
+  <si>
+    <t>Hold       ($11.99)</t>
+  </si>
+  <si>
+    <t>Buy        ($43.95)</t>
+  </si>
+  <si>
+    <t>Hold       ($22.66)</t>
+  </si>
+  <si>
+    <t>Hold       ($16.37)</t>
+  </si>
+  <si>
+    <t>Hold       ($17.16)</t>
+  </si>
+  <si>
+    <t>Hold       ($24.20)</t>
+  </si>
+  <si>
+    <t>Hold       ($92.91)</t>
+  </si>
+  <si>
+    <t>Buy        ($119.47)</t>
+  </si>
+  <si>
+    <t>Hold       ($83.27)</t>
+  </si>
+  <si>
+    <t>Hold       ($43.76)</t>
+  </si>
+  <si>
+    <t>Hold       ($100.86)</t>
+  </si>
+  <si>
+    <t>Hold       ($36.16)</t>
+  </si>
+  <si>
+    <t>Hold       ($67.57)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1521,7 +1720,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1563,6 +1762,21 @@
         <fgColor indexed="42"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1574,25 +1788,28 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+  <cellXfs count="13">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1609,10 +1826,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1647,7 +1864,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1699,7 +1916,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1810,21 +2027,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1841,7 +2058,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1893,2143 +2110,2473 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="6" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="15" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="16" max="18" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="9" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="9.0" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>461</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" s="0" t="s">
         <v>460</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" s="0" t="s">
         <v>429</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" s="0" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>462</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" s="0" t="s">
         <v>430</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" s="0" t="s">
         <v>430</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>463</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" s="0" t="s">
         <v>431</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" s="0" t="s">
         <v>431</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="K3" t="s">
+      <c r="N3" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="M3" t="s">
+      <c r="P3" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="N3" t="s">
+      <c r="Q3" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="O3" t="s">
+      <c r="R3" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="P3" t="s">
+      <c r="S3" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="T3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="S3" t="s">
+      <c r="V3" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="T3" t="s">
+      <c r="W3" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>532</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>464</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" s="0" t="s">
         <v>432</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" s="0" t="s">
         <v>432</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="K4" t="s">
+      <c r="N4" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="M4" t="s">
+      <c r="P4" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="N4" t="s">
+      <c r="Q4" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="O4" t="s">
+      <c r="R4" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="P4" t="s">
+      <c r="S4" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="T4" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="R4" t="s">
+      <c r="U4" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="S4" t="s">
+      <c r="V4" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="T4" t="s">
+      <c r="W4" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>340</v>
       </c>
       <c r="B5" t="s">
+        <v>533</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>465</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" s="0" t="s">
         <v>433</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" s="0" t="s">
         <v>433</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" s="0" t="s">
         <v>337</v>
       </c>
-      <c r="H5" t="s">
+      <c r="K5" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="I5" t="s">
+      <c r="L5" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="M5" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="K5" t="s">
+      <c r="N5" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="L5" t="s">
+      <c r="O5" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="M5" t="s">
+      <c r="P5" s="0" t="s">
         <v>332</v>
       </c>
-      <c r="N5" t="s">
+      <c r="Q5" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="O5" t="s">
+      <c r="R5" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="P5" t="s">
+      <c r="S5" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="T5" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="R5" t="s">
+      <c r="U5" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="S5" t="s">
+      <c r="V5" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="T5" t="s">
+      <c r="W5" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>351</v>
       </c>
       <c r="B6" t="s">
+        <v>534</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>466</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="G6" t="s">
+      <c r="J6" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="H6" t="s">
+      <c r="K6" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="I6" t="s">
+      <c r="L6" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M6" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="N6" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="L6" t="s">
+      <c r="O6" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="M6" t="s">
+      <c r="P6" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="N6" t="s">
+      <c r="Q6" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="O6" t="s">
+      <c r="R6" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="P6" t="s">
+      <c r="S6" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="T6" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="R6" s="8" t="s">
+      <c r="U6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S6" s="8" t="s">
+      <c r="V6" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>363</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G7" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I7" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="G7" t="s">
+      <c r="J7" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="H7" t="s">
+      <c r="K7" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="I7" t="s">
+      <c r="L7" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="K7" t="s">
+      <c r="N7" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="L7" t="s">
+      <c r="O7" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="M7" t="s">
+      <c r="P7" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="N7" t="s">
+      <c r="Q7" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="O7" t="s">
+      <c r="R7" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="P7" t="s">
+      <c r="S7" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="T7" s="0" t="s">
         <v>353</v>
       </c>
-      <c r="R7" t="s">
+      <c r="U7" s="0" t="s">
         <v>352</v>
       </c>
-      <c r="S7" t="s">
+      <c r="V7" s="0" t="s">
         <v>352</v>
       </c>
-      <c r="T7" t="s">
+      <c r="W7" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>374</v>
       </c>
       <c r="B8" t="s">
+        <v>536</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>468</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" s="0" t="s">
         <v>436</v>
       </c>
-      <c r="D8" t="s">
+      <c r="G8" s="0" t="s">
         <v>436</v>
       </c>
-      <c r="E8" t="s">
+      <c r="H8" s="0" t="s">
         <v>373</v>
       </c>
-      <c r="F8" t="s">
+      <c r="I8" s="0" t="s">
         <v>372</v>
       </c>
-      <c r="G8" t="s">
+      <c r="J8" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="H8" t="s">
+      <c r="K8" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="I8" t="s">
+      <c r="L8" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="K8" t="s">
+      <c r="N8" s="0" t="s">
         <v>368</v>
       </c>
-      <c r="L8" t="s">
+      <c r="O8" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="M8" t="s">
+      <c r="P8" s="0" t="s">
         <v>366</v>
       </c>
-      <c r="N8" t="s">
+      <c r="Q8" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="O8" t="s">
+      <c r="R8" s="0" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>387</v>
       </c>
       <c r="B9" t="s">
+        <v>537</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" s="0" t="s">
         <v>437</v>
       </c>
-      <c r="D9" t="s">
+      <c r="G9" s="0" t="s">
         <v>437</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9" s="0" t="s">
         <v>386</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I9" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="G9" t="s">
+      <c r="J9" s="0" t="s">
         <v>384</v>
       </c>
-      <c r="H9" t="s">
+      <c r="K9" s="0" t="s">
         <v>383</v>
       </c>
-      <c r="I9" t="s">
+      <c r="L9" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="K9" t="s">
+      <c r="N9" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="L9" t="s">
+      <c r="O9" s="0" t="s">
         <v>380</v>
       </c>
-      <c r="M9" t="s">
+      <c r="P9" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="N9" t="s">
+      <c r="Q9" s="0" t="s">
         <v>378</v>
       </c>
-      <c r="O9" t="s">
+      <c r="R9" s="0" t="s">
         <v>378</v>
       </c>
-      <c r="P9" t="s">
+      <c r="S9" s="0" t="s">
         <v>377</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="T9" s="0" t="s">
         <v>376</v>
       </c>
-      <c r="R9" t="s">
+      <c r="U9" s="0" t="s">
         <v>375</v>
       </c>
-      <c r="S9" t="s">
+      <c r="V9" s="0" t="s">
         <v>375</v>
       </c>
-      <c r="T9" t="s">
+      <c r="W9" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>398</v>
       </c>
       <c r="B10" t="s">
+        <v>538</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>470</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" s="0" t="s">
         <v>438</v>
       </c>
-      <c r="D10" t="s">
+      <c r="G10" s="0" t="s">
         <v>438</v>
       </c>
-      <c r="E10" t="s">
+      <c r="H10" s="0" t="s">
         <v>397</v>
       </c>
-      <c r="F10" t="s">
+      <c r="I10" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="G10" t="s">
+      <c r="J10" s="0" t="s">
         <v>395</v>
       </c>
-      <c r="H10" t="s">
+      <c r="K10" s="0" t="s">
         <v>394</v>
       </c>
-      <c r="I10" t="s">
+      <c r="L10" s="0" t="s">
         <v>394</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="K10" t="s">
+      <c r="N10" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="L10" t="s">
+      <c r="O10" s="0" t="s">
         <v>392</v>
       </c>
-      <c r="M10" t="s">
+      <c r="P10" s="0" t="s">
         <v>391</v>
       </c>
-      <c r="N10" t="s">
+      <c r="Q10" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="O10" t="s">
+      <c r="R10" s="0" t="s">
         <v>389</v>
       </c>
-      <c r="P10" t="s">
+      <c r="S10" s="0" t="s">
         <v>388</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="T10" s="0" t="s">
         <v>388</v>
       </c>
-      <c r="R10" s="8" t="s">
+      <c r="U10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S10" s="8" t="s">
+      <c r="V10" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>399</v>
       </c>
       <c r="B11" t="s">
+        <v>539</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>471</v>
       </c>
-      <c r="C11" t="s">
+      <c r="F11" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="D11" t="s">
+      <c r="G11" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="E11" t="s">
+      <c r="H11" s="0" t="s">
         <v>400</v>
       </c>
-      <c r="F11" t="s">
+      <c r="I11" s="0" t="s">
         <v>401</v>
       </c>
-      <c r="G11" t="s">
+      <c r="J11" s="0" t="s">
         <v>402</v>
       </c>
-      <c r="H11" t="s">
+      <c r="K11" s="0" t="s">
         <v>403</v>
       </c>
-      <c r="I11" t="s">
+      <c r="L11" s="0" t="s">
         <v>404</v>
       </c>
-      <c r="J11" t="s">
+      <c r="M11" s="0" t="s">
         <v>404</v>
       </c>
-      <c r="K11" t="s">
+      <c r="N11" s="0" t="s">
         <v>405</v>
       </c>
-      <c r="L11" t="s">
+      <c r="O11" s="0" t="s">
         <v>406</v>
       </c>
-      <c r="M11" t="s">
+      <c r="P11" s="0" t="s">
         <v>407</v>
       </c>
-      <c r="N11" t="s">
+      <c r="Q11" s="0" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>418</v>
       </c>
       <c r="B12" t="s">
+        <v>540</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>472</v>
       </c>
-      <c r="C12" t="s">
+      <c r="F12" s="0" t="s">
         <v>440</v>
       </c>
-      <c r="D12" t="s">
+      <c r="G12" s="0" t="s">
         <v>440</v>
       </c>
-      <c r="E12" t="s">
+      <c r="H12" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="F12" t="s">
+      <c r="I12" s="0" t="s">
         <v>416</v>
       </c>
-      <c r="G12" t="s">
+      <c r="J12" s="0" t="s">
         <v>415</v>
       </c>
-      <c r="H12" t="s">
+      <c r="K12" s="0" t="s">
         <v>414</v>
       </c>
-      <c r="I12" t="s">
+      <c r="L12" s="0" t="s">
         <v>413</v>
       </c>
-      <c r="J12" t="s">
+      <c r="M12" s="0" t="s">
         <v>413</v>
       </c>
-      <c r="K12" t="s">
+      <c r="N12" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="L12" t="s">
+      <c r="O12" s="0" t="s">
         <v>411</v>
       </c>
-      <c r="M12" t="s">
+      <c r="P12" s="0" t="s">
         <v>410</v>
       </c>
-      <c r="N12" t="s">
+      <c r="Q12" s="0" t="s">
         <v>409</v>
       </c>
-      <c r="O12" t="s">
+      <c r="R12" s="0" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>428</v>
       </c>
       <c r="B13" t="s">
+        <v>424</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>473</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F13" s="0" t="s">
         <v>441</v>
       </c>
-      <c r="D13" t="s">
+      <c r="G13" s="0" t="s">
         <v>441</v>
       </c>
-      <c r="E13" t="s">
+      <c r="H13" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="F13" t="s">
+      <c r="I13" s="0" t="s">
         <v>426</v>
       </c>
-      <c r="G13" t="s">
+      <c r="J13" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="H13" t="s">
+      <c r="K13" s="0" t="s">
         <v>424</v>
       </c>
-      <c r="I13" t="s">
+      <c r="L13" s="0" t="s">
         <v>424</v>
       </c>
-      <c r="J13" t="s">
+      <c r="M13" s="0" t="s">
         <v>423</v>
       </c>
-      <c r="K13" t="s">
+      <c r="N13" s="0" t="s">
         <v>422</v>
       </c>
-      <c r="L13" t="s">
+      <c r="O13" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="M13" t="s">
+      <c r="P13" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="N13" t="s">
+      <c r="Q13" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="O13" t="s">
+      <c r="R13" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="P13" t="s">
+      <c r="S13" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="T13" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="R13" t="s">
+      <c r="U13" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="S13" t="s">
+      <c r="V13" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
       <c r="B14" t="s">
+        <v>541</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>474</v>
       </c>
-      <c r="C14" t="s">
+      <c r="F14" s="0" t="s">
         <v>442</v>
       </c>
-      <c r="D14" t="s">
+      <c r="G14" s="0" t="s">
         <v>442</v>
       </c>
-      <c r="E14" t="s">
+      <c r="H14" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="F14" t="s">
+      <c r="I14" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="G14" t="s">
+      <c r="J14" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="K14" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="L14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J14" t="s">
+      <c r="M14" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="K14" t="s">
+      <c r="N14" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="L14" t="s">
+      <c r="O14" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="M14" t="s">
+      <c r="P14" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="N14" t="s">
+      <c r="Q14" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="O14" t="s">
+      <c r="R14" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="P14" t="s">
+      <c r="S14" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="T14" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R14" t="s">
+      <c r="U14" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="S14" t="s">
+      <c r="V14" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="T14" t="s">
+      <c r="W14" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" t="s">
+        <v>542</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="C15" t="s">
+      <c r="F15" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="D15" t="s">
+      <c r="G15" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="E15" t="s">
+      <c r="H15" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="F15" t="s">
+      <c r="I15" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="G15" t="s">
+      <c r="J15" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="H15" t="s">
+      <c r="K15" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="I15" t="s">
+      <c r="L15" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="J15" t="s">
+      <c r="M15" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="K15" t="s">
+      <c r="N15" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="L15" t="s">
+      <c r="O15" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="M15" t="s">
+      <c r="P15" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="N15" t="s">
+      <c r="Q15" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="O15" t="s">
+      <c r="R15" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="P15" t="s">
+      <c r="S15" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="T15" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="R15" t="s">
+      <c r="U15" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="S15" t="s">
+      <c r="V15" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="T15" t="s">
+      <c r="W15" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16" t="s">
+        <v>543</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="E16" s="0" t="s">
         <v>475</v>
       </c>
-      <c r="C16" t="s">
+      <c r="F16" s="0" t="s">
         <v>443</v>
       </c>
-      <c r="D16" t="s">
+      <c r="G16" s="0" t="s">
         <v>443</v>
       </c>
-      <c r="E16" t="s">
+      <c r="H16" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="F16" t="s">
+      <c r="I16" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="G16" t="s">
+      <c r="J16" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="H16" t="s">
+      <c r="K16" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="I16" t="s">
+      <c r="L16" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="J16" t="s">
+      <c r="M16" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="K16" t="s">
+      <c r="N16" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="L16" t="s">
+      <c r="O16" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="M16" t="s">
+      <c r="P16" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="N16" t="s">
+      <c r="Q16" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="O16" t="s">
+      <c r="R16" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="P16" t="s">
+      <c r="S16" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="T16" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="R16" t="s">
+      <c r="U16" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="S16" t="s">
+      <c r="V16" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="T16" t="s">
+      <c r="W16" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
       <c r="B17" t="s">
+        <v>544</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="E17" s="0" t="s">
         <v>476</v>
       </c>
-      <c r="C17" t="s">
+      <c r="F17" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="D17" t="s">
+      <c r="G17" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="E17" t="s">
+      <c r="H17" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="F17" t="s">
+      <c r="I17" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="G17" t="s">
+      <c r="J17" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="H17" t="s">
+      <c r="K17" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="I17" t="s">
+      <c r="L17" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="J17" t="s">
+      <c r="M17" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="K17" t="s">
+      <c r="N17" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="L17" t="s">
+      <c r="O17" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="M17" t="s">
+      <c r="P17" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="N17" t="s">
+      <c r="Q17" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="O17" t="s">
+      <c r="R17" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="P17" t="s">
+      <c r="S17" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="T17" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="R17" t="s">
+      <c r="U17" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="S17" t="s">
+      <c r="V17" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="T17" t="s">
+      <c r="W17" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18" t="s">
+        <v>545</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>477</v>
       </c>
-      <c r="C18" t="s">
+      <c r="F18" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="D18" t="s">
+      <c r="G18" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="E18" t="s">
+      <c r="H18" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="F18" t="s">
+      <c r="I18" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="G18" t="s">
+      <c r="J18" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="H18" t="s">
+      <c r="K18" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="I18" t="s">
+      <c r="L18" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="J18" t="s">
+      <c r="M18" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="K18" t="s">
+      <c r="N18" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="L18" t="s">
+      <c r="O18" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="M18" t="s">
+      <c r="P18" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="N18" t="s">
+      <c r="Q18" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="O18" t="s">
+      <c r="R18" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="P18" t="s">
+      <c r="S18" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="T18" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="R18" t="s">
+      <c r="U18" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="S18" t="s">
+      <c r="V18" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="T18" t="s">
+      <c r="W18" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>8</v>
       </c>
       <c r="B19" t="s">
+        <v>546</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>478</v>
       </c>
-      <c r="C19" t="s">
+      <c r="F19" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="D19" t="s">
+      <c r="G19" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="E19" t="s">
+      <c r="H19" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="F19" t="s">
+      <c r="I19" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="G19" t="s">
+      <c r="J19" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="H19" t="s">
+      <c r="K19" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="I19" t="s">
+      <c r="L19" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="J19" t="s">
+      <c r="M19" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="K19" t="s">
+      <c r="N19" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="L19" t="s">
+      <c r="O19" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="M19" t="s">
+      <c r="P19" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="N19" t="s">
+      <c r="Q19" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="O19" t="s">
+      <c r="R19" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="P19" t="s">
+      <c r="S19" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="T19" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="R19" t="s">
+      <c r="U19" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="S19" t="s">
+      <c r="V19" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="T19" t="s">
+      <c r="W19" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>9</v>
       </c>
       <c r="B20" t="s">
+        <v>547</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>479</v>
       </c>
-      <c r="C20" t="s">
+      <c r="F20" s="0" t="s">
         <v>447</v>
       </c>
-      <c r="D20" t="s">
+      <c r="G20" s="0" t="s">
         <v>447</v>
       </c>
-      <c r="E20" t="s">
+      <c r="H20" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="F20" t="s">
+      <c r="I20" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="G20" t="s">
+      <c r="J20" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="H20" t="s">
+      <c r="K20" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="I20" t="s">
+      <c r="L20" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="J20" t="s">
+      <c r="M20" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="K20" t="s">
+      <c r="N20" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="L20" t="s">
+      <c r="O20" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="M20" t="s">
+      <c r="P20" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="N20" t="s">
+      <c r="Q20" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="O20" t="s">
+      <c r="R20" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="P20" t="s">
+      <c r="S20" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="T20" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="R20" t="s">
+      <c r="U20" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="S20" t="s">
+      <c r="V20" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="T20" t="s">
+      <c r="W20" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>10</v>
       </c>
       <c r="B21" t="s">
+        <v>548</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>480</v>
       </c>
-      <c r="C21" t="s">
+      <c r="F21" s="0" t="s">
         <v>448</v>
       </c>
-      <c r="D21" t="s">
+      <c r="G21" s="0" t="s">
         <v>448</v>
       </c>
-      <c r="E21" t="s">
+      <c r="H21" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="F21" t="s">
+      <c r="I21" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="G21" t="s">
+      <c r="J21" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="H21" t="s">
+      <c r="K21" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="I21" t="s">
+      <c r="L21" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="J21" t="s">
+      <c r="M21" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="K21" t="s">
+      <c r="N21" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="L21" t="s">
+      <c r="O21" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="M21" t="s">
+      <c r="P21" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="N21" t="s">
+      <c r="Q21" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="O21" t="s">
+      <c r="R21" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="P21" t="s">
+      <c r="S21" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="T21" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="R21" t="s">
+      <c r="U21" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="S21" t="s">
+      <c r="V21" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="T21" t="s">
+      <c r="W21" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>11</v>
       </c>
       <c r="B22" t="s">
+        <v>549</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>481</v>
       </c>
-      <c r="C22" t="s">
+      <c r="F22" s="0" t="s">
         <v>449</v>
       </c>
-      <c r="D22" t="s">
+      <c r="G22" s="0" t="s">
         <v>449</v>
       </c>
-      <c r="E22" t="s">
+      <c r="H22" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="F22" t="s">
+      <c r="I22" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="G22" t="s">
+      <c r="J22" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="H22" t="s">
+      <c r="K22" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="I22" t="s">
+      <c r="L22" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="J22" t="s">
+      <c r="M22" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="K22" t="s">
+      <c r="N22" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="L22" t="s">
+      <c r="O22" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="M22" t="s">
+      <c r="P22" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="N22" t="s">
+      <c r="Q22" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="O22" t="s">
+      <c r="R22" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="P22" t="s">
+      <c r="S22" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="T22" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="R22" t="s">
+      <c r="U22" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="S22" t="s">
+      <c r="V22" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="T22" t="s">
+      <c r="W22" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>12</v>
       </c>
       <c r="B23" t="s">
+        <v>550</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>482</v>
       </c>
-      <c r="C23" t="s">
+      <c r="F23" s="0" t="s">
         <v>450</v>
       </c>
-      <c r="D23" t="s">
+      <c r="G23" s="0" t="s">
         <v>450</v>
       </c>
-      <c r="E23" t="s">
+      <c r="H23" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="F23" t="s">
+      <c r="I23" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="G23" t="s">
+      <c r="J23" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="H23" t="s">
+      <c r="K23" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="I23" t="s">
+      <c r="L23" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="J23" t="s">
+      <c r="M23" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="K23" t="s">
+      <c r="N23" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="L23" t="s">
+      <c r="O23" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="M23" t="s">
+      <c r="P23" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="N23" t="s">
+      <c r="Q23" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="O23" t="s">
+      <c r="R23" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="P23" t="s">
+      <c r="S23" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="T23" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="R23" t="s">
+      <c r="U23" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="S23" t="s">
+      <c r="V23" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="T23" t="s">
+      <c r="W23" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>13</v>
       </c>
       <c r="B24" t="s">
+        <v>551</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="0" t="s">
         <v>483</v>
       </c>
-      <c r="C24" t="s">
+      <c r="F24" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="D24" t="s">
+      <c r="G24" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="E24" t="s">
+      <c r="H24" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="F24" t="s">
+      <c r="I24" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="G24" t="s">
+      <c r="J24" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="H24" t="s">
+      <c r="K24" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="I24" t="s">
+      <c r="L24" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="J24" t="s">
+      <c r="M24" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="K24" t="s">
+      <c r="N24" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="L24" t="s">
+      <c r="O24" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="M24" t="s">
+      <c r="P24" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="N24" t="s">
+      <c r="Q24" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="O24" t="s">
+      <c r="R24" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="P24" t="s">
+      <c r="S24" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="T24" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="R24" t="s">
+      <c r="U24" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="S24" t="s">
+      <c r="V24" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="T24" t="s">
+      <c r="W24" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>14</v>
       </c>
       <c r="B25" t="s">
+        <v>552</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="E25" s="0" t="s">
         <v>484</v>
       </c>
-      <c r="C25" t="s">
+      <c r="F25" s="0" t="s">
         <v>451</v>
       </c>
-      <c r="D25" t="s">
+      <c r="G25" s="0" t="s">
         <v>451</v>
       </c>
-      <c r="E25" t="s">
+      <c r="H25" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="I25" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="G25" t="s">
+      <c r="J25" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="H25" t="s">
+      <c r="K25" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="I25" t="s">
+      <c r="L25" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="J25" t="s">
+      <c r="M25" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="K25" t="s">
+      <c r="N25" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="O25" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="M25" t="s">
+      <c r="P25" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="Q25" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="O25" t="s">
+      <c r="R25" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="P25" t="s">
+      <c r="S25" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="T25" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="R25" t="s">
+      <c r="U25" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="S25" t="s">
+      <c r="V25" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="T25" t="s">
+      <c r="W25" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>15</v>
       </c>
       <c r="B26" t="s">
+        <v>553</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="E26" s="0" t="s">
         <v>485</v>
       </c>
-      <c r="C26" t="s">
+      <c r="F26" s="0" t="s">
         <v>452</v>
       </c>
-      <c r="D26" t="s">
+      <c r="G26" s="0" t="s">
         <v>452</v>
       </c>
-      <c r="E26" t="s">
+      <c r="H26" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="I26" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="G26" t="s">
+      <c r="J26" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="H26" t="s">
+      <c r="K26" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="I26" t="s">
+      <c r="L26" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="J26" t="s">
+      <c r="M26" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="K26" t="s">
+      <c r="N26" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="L26" t="s">
+      <c r="O26" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="M26" t="s">
+      <c r="P26" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="N26" t="s">
+      <c r="Q26" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="O26" t="s">
+      <c r="R26" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="P26" t="s">
+      <c r="S26" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="T26" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="R26" t="s">
+      <c r="U26" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="S26" t="s">
+      <c r="V26" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="T26" t="s">
+      <c r="W26" s="0" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>16</v>
       </c>
       <c r="B27" t="s">
+        <v>554</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="E27" s="0" t="s">
         <v>486</v>
       </c>
-      <c r="C27" t="s">
+      <c r="F27" s="0" t="s">
         <v>453</v>
       </c>
-      <c r="D27" t="s">
+      <c r="G27" s="0" t="s">
         <v>453</v>
       </c>
-      <c r="E27" t="s">
+      <c r="H27" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="F27" t="s">
+      <c r="I27" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="G27" t="s">
+      <c r="J27" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="H27" t="s">
+      <c r="K27" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="I27" t="s">
+      <c r="L27" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="J27" t="s">
+      <c r="M27" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="K27" t="s">
+      <c r="N27" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="L27" t="s">
+      <c r="O27" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="M27" t="s">
+      <c r="P27" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="N27" t="s">
+      <c r="Q27" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="O27" t="s">
+      <c r="R27" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="P27" t="s">
+      <c r="S27" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="T27" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="R27" t="s">
+      <c r="U27" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="S27" t="s">
+      <c r="V27" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="T27" t="s">
+      <c r="W27" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>17</v>
       </c>
       <c r="B28" t="s">
+        <v>224</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="E28" s="0" t="s">
         <v>487</v>
       </c>
-      <c r="C28" t="s">
+      <c r="F28" s="0" t="s">
         <v>454</v>
       </c>
-      <c r="D28" t="s">
+      <c r="G28" s="0" t="s">
         <v>454</v>
       </c>
-      <c r="E28" t="s">
+      <c r="H28" s="0" t="s">
         <v>321</v>
       </c>
-      <c r="F28" t="s">
+      <c r="I28" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="G28" t="s">
+      <c r="J28" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="H28" t="s">
+      <c r="K28" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="I28" t="s">
+      <c r="L28" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="J28" t="s">
+      <c r="M28" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="K28" t="s">
+      <c r="N28" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="L28" t="s">
+      <c r="O28" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="M28" t="s">
+      <c r="P28" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="N28" t="s">
+      <c r="Q28" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="O28" t="s">
+      <c r="R28" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="P28" t="s">
+      <c r="S28" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="T28" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="R28" t="s">
+      <c r="U28" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="S28" t="s">
+      <c r="V28" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="T28" t="s">
+      <c r="W28" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>18</v>
       </c>
       <c r="B29" t="s">
         <v>50</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N29" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="O29" t="s">
+      <c r="O29" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="P29" t="s">
+      <c r="P29" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="Q29" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="R29" t="s">
+      <c r="R29" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="S29" t="s">
+      <c r="S29" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="T29" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="U29" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="V29" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="T29" t="s">
+      <c r="W29" s="0" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>19</v>
       </c>
       <c r="B30" t="s">
+        <v>555</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="E30" s="0" t="s">
         <v>488</v>
       </c>
-      <c r="C30" t="s">
+      <c r="F30" s="0" t="s">
         <v>455</v>
       </c>
-      <c r="D30" t="s">
+      <c r="G30" s="0" t="s">
         <v>455</v>
       </c>
-      <c r="E30" t="s">
+      <c r="H30" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="F30" t="s">
+      <c r="I30" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="G30" t="s">
+      <c r="J30" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="H30" t="s">
+      <c r="K30" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="I30" t="s">
+      <c r="L30" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="J30" t="s">
+      <c r="M30" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="K30" t="s">
+      <c r="N30" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="L30" t="s">
+      <c r="O30" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="M30" t="s">
+      <c r="P30" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="N30" t="s">
+      <c r="Q30" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="O30" t="s">
+      <c r="R30" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="P30" t="s">
+      <c r="S30" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="T30" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="R30" t="s">
+      <c r="U30" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="S30" t="s">
+      <c r="V30" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="T30" t="s">
+      <c r="W30" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>20</v>
       </c>
       <c r="B31" t="s">
+        <v>439</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="E31" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="C31" t="s">
+      <c r="F31" s="0" t="s">
         <v>456</v>
       </c>
-      <c r="D31" t="s">
+      <c r="G31" s="0" t="s">
         <v>456</v>
       </c>
-      <c r="E31" t="s">
+      <c r="H31" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="F31" t="s">
+      <c r="I31" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="G31" t="s">
+      <c r="J31" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="H31" t="s">
+      <c r="K31" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="I31" t="s">
+      <c r="L31" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="J31" t="s">
+      <c r="M31" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="K31" t="s">
+      <c r="N31" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="L31" t="s">
+      <c r="O31" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="M31" t="s">
+      <c r="P31" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="N31" t="s">
+      <c r="Q31" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="O31" t="s">
+      <c r="R31" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="P31" t="s">
+      <c r="S31" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="T31" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="R31" t="s">
+      <c r="U31" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="S31" t="s">
+      <c r="V31" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="T31" t="s">
+      <c r="W31" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>21</v>
       </c>
       <c r="B32" t="s">
+        <v>556</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="E32" s="0" t="s">
         <v>489</v>
       </c>
-      <c r="C32" t="s">
+      <c r="F32" s="0" t="s">
         <v>457</v>
       </c>
-      <c r="D32" t="s">
+      <c r="G32" s="0" t="s">
         <v>457</v>
       </c>
-      <c r="E32" t="s">
+      <c r="H32" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="F32" t="s">
+      <c r="I32" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="G32" t="s">
+      <c r="J32" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="H32" t="s">
+      <c r="K32" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="I32" t="s">
+      <c r="L32" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="J32" t="s">
+      <c r="M32" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="K32" t="s">
+      <c r="N32" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="L32" t="s">
+      <c r="O32" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="M32" t="s">
+      <c r="P32" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="N32" t="s">
+      <c r="Q32" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="O32" t="s">
+      <c r="R32" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="P32" t="s">
+      <c r="S32" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="T32" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="R32" t="s">
+      <c r="U32" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="S32" t="s">
+      <c r="V32" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="T32" t="s">
+      <c r="W32" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>22</v>
       </c>
       <c r="B33" t="s">
+        <v>557</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="E33" s="0" t="s">
         <v>490</v>
       </c>
-      <c r="C33" t="s">
+      <c r="F33" s="0" t="s">
         <v>458</v>
       </c>
-      <c r="D33" t="s">
+      <c r="G33" s="0" t="s">
         <v>458</v>
       </c>
-      <c r="E33" t="s">
+      <c r="H33" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="F33" t="s">
+      <c r="I33" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="G33" t="s">
+      <c r="J33" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="H33" t="s">
+      <c r="K33" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="I33" t="s">
+      <c r="L33" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="J33" t="s">
+      <c r="M33" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="K33" t="s">
+      <c r="N33" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="L33" t="s">
+      <c r="O33" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="M33" t="s">
+      <c r="P33" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="N33" t="s">
+      <c r="Q33" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="O33" t="s">
+      <c r="R33" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="P33" t="s">
+      <c r="S33" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="T33" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="R33" t="s">
+      <c r="U33" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="S33" t="s">
+      <c r="V33" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="T33" t="s">
+      <c r="W33" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>23</v>
       </c>
       <c r="B34" t="s">
+        <v>558</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="E34" s="0" t="s">
         <v>491</v>
       </c>
-      <c r="C34" t="s">
+      <c r="F34" s="0" t="s">
         <v>459</v>
       </c>
-      <c r="D34" t="s">
+      <c r="G34" s="0" t="s">
         <v>459</v>
       </c>
-      <c r="E34" t="s">
+      <c r="H34" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="F34" t="s">
+      <c r="I34" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="G34" t="s">
+      <c r="J34" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="H34" t="s">
+      <c r="K34" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="I34" t="s">
+      <c r="L34" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="J34" t="s">
+      <c r="M34" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="K34" t="s">
+      <c r="N34" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="L34" t="s">
+      <c r="O34" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="M34" t="s">
+      <c r="P34" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="N34" t="s">
+      <c r="Q34" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="O34" t="s">
+      <c r="R34" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="P34" t="s">
+      <c r="S34" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="T34" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="R34" t="s">
+      <c r="U34" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="S34" t="s">
+      <c r="V34" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="T34" t="s">
+      <c r="W34" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>24</v>
       </c>
       <c r="B35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="E35" s="0" t="s">
         <v>492</v>
       </c>
-      <c r="C35" t="s">
+      <c r="F35" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="D35" t="s">
+      <c r="G35" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="E35" t="s">
+      <c r="H35" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="F35" t="s">
+      <c r="I35" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="G35" t="s">
+      <c r="J35" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="H35" t="s">
+      <c r="K35" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="I35" t="s">
+      <c r="L35" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="J35" t="s">
+      <c r="M35" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="K35" t="s">
+      <c r="N35" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="L35" t="s">
+      <c r="O35" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="M35" t="s">
+      <c r="P35" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="N35" t="s">
+      <c r="Q35" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="O35" t="s">
+      <c r="R35" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="P35" t="s">
+      <c r="S35" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="T35" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="R35" t="s">
+      <c r="U35" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="S35" t="s">
+      <c r="V35" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="T35" t="s">
+      <c r="W35" s="0" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Reports/ZacksRank/TanzyInvested.xlsx
+++ b/Reports/ZacksRank/TanzyInvested.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i852841/_Codes/_Personal/StockRankingCrawler/Reports/ZacksRank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FA26D4-029D-C745-95D2-6BE60403CF07}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{F5FA26D4-029D-C745-95D2-6BE60403CF07}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="19560" windowWidth="33600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="data" r:id="rId1" sheetId="1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4014" uniqueCount="646">
   <si>
     <t>SQ</t>
   </si>
@@ -1775,12 +1775,199 @@
   </si>
   <si>
     <t>LLNW</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Jun_26</t>
+  </si>
+  <si>
+    <t>Hold       ($62.54)</t>
+  </si>
+  <si>
+    <t>Buy        ($43.99)</t>
+  </si>
+  <si>
+    <t>Hold       ($75.40)</t>
+  </si>
+  <si>
+    <t>Sell       ($51.97)</t>
+  </si>
+  <si>
+    <t>Buy        ($26.11)</t>
+  </si>
+  <si>
+    <t>Sell       ($37.42)</t>
+  </si>
+  <si>
+    <t>Hold       ($6.52)</t>
+  </si>
+  <si>
+    <t>StrongSell ($13.74)</t>
+  </si>
+  <si>
+    <t>Hold       ($31.61)</t>
+  </si>
+  <si>
+    <t>UN         ($3.57)</t>
+  </si>
+  <si>
+    <t>Hold       ($92.27)</t>
+  </si>
+  <si>
+    <t>Buy        ($15.50)</t>
+  </si>
+  <si>
+    <t>Hold       ($49.67)</t>
+  </si>
+  <si>
+    <t>Hold       ($41.01)</t>
+  </si>
+  <si>
+    <t>Hold       ($21.73)</t>
+  </si>
+  <si>
+    <t>Hold       ($23.62)</t>
+  </si>
+  <si>
+    <t>Hold       ($92.50)</t>
+  </si>
+  <si>
+    <t>Hold       ($115.25)</t>
+  </si>
+  <si>
+    <t>Sell       ($81.59)</t>
+  </si>
+  <si>
+    <t>Hold       ($28.54)</t>
+  </si>
+  <si>
+    <t>Hold       ($39.47)</t>
+  </si>
+  <si>
+    <t>Hold       ($14.02)</t>
+  </si>
+  <si>
+    <t>Hold       ($99.08)</t>
+  </si>
+  <si>
+    <t>Hold       ($36.38)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($68.27)</t>
+  </si>
+  <si>
+    <t>Hold       ($53.43)</t>
+  </si>
+  <si>
+    <t>Hold       ($12.98)</t>
+  </si>
+  <si>
+    <t>Buy        ($6.79)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.65)</t>
+  </si>
+  <si>
+    <t>Jun_27</t>
+  </si>
+  <si>
+    <t>Hold       ($60.07)</t>
+  </si>
+  <si>
+    <t>Buy        ($41.42)</t>
+  </si>
+  <si>
+    <t>Hold       ($76.02)</t>
+  </si>
+  <si>
+    <t>Sell       ($50.09)</t>
+  </si>
+  <si>
+    <t>Sell       ($10.70)</t>
+  </si>
+  <si>
+    <t>Hold       ($24.68)</t>
+  </si>
+  <si>
+    <t>StrongSell ($36.82)</t>
+  </si>
+  <si>
+    <t>Buy        ($6.32)</t>
+  </si>
+  <si>
+    <t>Sell       ($13.96)</t>
+  </si>
+  <si>
+    <t>Hold       ($31.65)</t>
+  </si>
+  <si>
+    <t>UN         ($3.35)</t>
+  </si>
+  <si>
+    <t>Hold       ($87.14)</t>
+  </si>
+  <si>
+    <t>Buy        ($14.97)</t>
+  </si>
+  <si>
+    <t>Buy        ($48.76)</t>
+  </si>
+  <si>
+    <t>Hold       ($40.37)</t>
+  </si>
+  <si>
+    <t>Hold       ($21.49)</t>
+  </si>
+  <si>
+    <t>Hold       ($23.64)</t>
+  </si>
+  <si>
+    <t>Hold       ($93.42)</t>
+  </si>
+  <si>
+    <t>Hold       ($114.84)</t>
+  </si>
+  <si>
+    <t>Sell       ($80.00)</t>
+  </si>
+  <si>
+    <t>Hold       ($28.24)</t>
+  </si>
+  <si>
+    <t>Hold       ($38.39)</t>
+  </si>
+  <si>
+    <t>Hold       ($97.54)</t>
+  </si>
+  <si>
+    <t>Hold       ($36.21)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($69.11)</t>
+  </si>
+  <si>
+    <t>Hold       ($53.28)</t>
+  </si>
+  <si>
+    <t>Hold       ($12.82)</t>
+  </si>
+  <si>
+    <t>Buy        ($6.78)</t>
+  </si>
+  <si>
+    <t>Hold       ($9.01)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.50)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1797,7 +1984,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1879,6 +2066,46 @@
         <fgColor indexed="42"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1890,116 +2117,180 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+  <cellXfs count="189">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2020,10 +2311,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2299,10 +2590,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2337,7 +2628,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2389,7 +2680,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2500,21 +2791,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2531,7 +2822,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2583,14 +2874,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2599,93 +2890,116 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="16.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="7" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="12" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="13" max="15" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="16" max="18" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="24" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="9" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="9.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>516</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="0" t="s">
         <v>488</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="0" t="s">
         <v>460</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="0" t="s">
         <v>433</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" s="0" t="s">
         <v>406</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" s="0" t="s">
         <v>378</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" s="0" t="s">
         <v>352</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" s="0" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2693,79 +3007,85 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="157" t="s">
+        <v>616</v>
+      </c>
+      <c r="C2" s="125" t="s">
+        <v>586</v>
+      </c>
+      <c r="D2" s="97" t="s">
         <v>517</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="E2" s="69" t="s">
         <v>489</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="F2" s="41" t="s">
         <v>461</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" s="0" t="s">
         <v>407</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" s="0" t="s">
         <v>407</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" s="0" t="s">
         <v>380</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" s="0" t="s">
         <v>353</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" s="0" t="s">
         <v>353</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2773,79 +3093,85 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="158" t="s">
+        <v>617</v>
+      </c>
+      <c r="C3" s="126" t="s">
+        <v>587</v>
+      </c>
+      <c r="D3" s="98" t="s">
         <v>518</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="E3" s="70" t="s">
         <v>490</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="F3" s="42" t="s">
         <v>462</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>437</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" s="0" t="s">
         <v>408</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" s="0" t="s">
         <v>408</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="U3" t="s">
+      <c r="W3" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="V3" t="s">
+      <c r="X3" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Y3" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AA3" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AB3" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2853,79 +3179,85 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="159" t="s">
+        <v>618</v>
+      </c>
+      <c r="C4" s="127" t="s">
+        <v>588</v>
+      </c>
+      <c r="D4" s="99" t="s">
         <v>519</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="E4" s="71" t="s">
         <v>491</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="F4" s="43" t="s">
         <v>463</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="G4" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" s="0" t="s">
         <v>409</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" s="0" t="s">
         <v>409</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="S4" t="s">
+      <c r="U4" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="T4" t="s">
+      <c r="V4" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="U4" t="s">
+      <c r="W4" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="V4" t="s">
+      <c r="X4" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Y4" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Z4" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AA4" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AB4" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2933,156 +3265,168 @@
       <c r="A5" t="s">
         <v>276</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="160" t="s">
+        <v>619</v>
+      </c>
+      <c r="C5" s="128" t="s">
+        <v>589</v>
+      </c>
+      <c r="D5" s="100" t="s">
         <v>520</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="E5" s="72" t="s">
         <v>492</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="F5" s="44" t="s">
         <v>464</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="G5" s="16" t="s">
         <v>439</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" s="0" t="s">
         <v>410</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" s="0" t="s">
         <v>410</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" s="0" t="s">
         <v>383</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="R5" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="S5" t="s">
+      <c r="U5" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="T5" t="s">
+      <c r="V5" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="U5" t="s">
+      <c r="W5" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="V5" t="s">
+      <c r="X5" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Y5" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Z5" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="AA5" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AB5" s="0" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>287</v>
       </c>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="161" t="s">
+        <v>620</v>
+      </c>
+      <c r="C6" s="129" t="s">
+        <v>434</v>
+      </c>
+      <c r="D6" s="101" t="s">
         <v>521</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="E6" s="73" t="s">
         <v>493</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="F6" s="45" t="s">
         <v>465</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="G6" s="17" t="s">
         <v>440</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="H6" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="I6" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" s="0" t="s">
         <v>384</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N6" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="M6" t="s">
+      <c r="O6" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="N6" t="s">
+      <c r="P6" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="P6" t="s">
+      <c r="R6" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="S6" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="S6" t="s">
+      <c r="U6" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="T6" t="s">
+      <c r="V6" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="U6" t="s">
+      <c r="W6" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="V6" t="s">
+      <c r="X6" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="W6" t="s">
+      <c r="Y6" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="X6" s="8" t="s">
+      <c r="Z6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="Y6" s="8" t="s">
+      <c r="AA6" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3090,79 +3434,85 @@
       <c r="A7" t="s">
         <v>299</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="162" t="s">
+        <v>621</v>
+      </c>
+      <c r="C7" s="130" t="s">
+        <v>590</v>
+      </c>
+      <c r="D7" s="102" t="s">
         <v>522</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="E7" s="74" t="s">
         <v>494</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="F7" s="46" t="s">
         <v>466</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="G7" s="18" t="s">
         <v>441</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="J7" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="P7" t="s">
+      <c r="R7" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="S7" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="S7" t="s">
+      <c r="U7" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="T7" t="s">
+      <c r="V7" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="U7" t="s">
+      <c r="W7" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="V7" t="s">
+      <c r="X7" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="W7" t="s">
+      <c r="Y7" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Z7" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="AA7" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AB7" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3170,141 +3520,153 @@
       <c r="A8" t="s">
         <v>310</v>
       </c>
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="163" t="s">
+        <v>622</v>
+      </c>
+      <c r="C8" s="131" t="s">
+        <v>591</v>
+      </c>
+      <c r="D8" s="103" t="s">
         <v>523</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="E8" s="75" t="s">
         <v>495</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="F8" s="47" t="s">
         <v>467</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="G8" s="19" t="s">
         <v>442</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" s="0" t="s">
         <v>413</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="I8" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" s="0" t="s">
         <v>386</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="L8" t="s">
+      <c r="N8" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="M8" t="s">
+      <c r="O8" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="N8" t="s">
+      <c r="P8" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="P8" t="s">
+      <c r="R8" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="S8" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T8" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="S8" t="s">
+      <c r="U8" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="T8" t="s">
+      <c r="V8" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="U8" t="s">
+      <c r="W8" s="0" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>321</v>
       </c>
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="164" t="s">
+        <v>623</v>
+      </c>
+      <c r="C9" s="132" t="s">
+        <v>592</v>
+      </c>
+      <c r="D9" s="104" t="s">
         <v>468</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="E9" s="76" t="s">
         <v>496</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="F9" s="48" t="s">
         <v>468</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="G9" s="20" t="s">
         <v>443</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" s="0" t="s">
         <v>414</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" s="0" t="s">
         <v>414</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" s="0" t="s">
         <v>387</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="L9" t="s">
+      <c r="N9" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="M9" t="s">
+      <c r="O9" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="N9" t="s">
+      <c r="P9" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="P9" t="s">
+      <c r="R9" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="S9" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="R9" t="s">
+      <c r="T9" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="S9" t="s">
+      <c r="U9" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="T9" t="s">
+      <c r="V9" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="U9" t="s">
+      <c r="W9" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="V9" t="s">
+      <c r="X9" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="W9" t="s">
+      <c r="Y9" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="X9" s="8" t="s">
+      <c r="Z9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="Y9" s="8" t="s">
+      <c r="AA9" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3312,61 +3674,67 @@
       <c r="A10" t="s">
         <v>322</v>
       </c>
-      <c r="B10" s="105" t="s">
+      <c r="B10" s="165" t="s">
+        <v>624</v>
+      </c>
+      <c r="C10" s="133" t="s">
+        <v>593</v>
+      </c>
+      <c r="D10" s="105" t="s">
         <v>524</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="E10" s="77" t="s">
         <v>497</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="F10" s="49" t="s">
         <v>469</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="G10" s="21" t="s">
         <v>444</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" s="0" t="s">
         <v>415</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" s="0" t="s">
         <v>415</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" s="0" t="s">
         <v>388</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="L10" t="s">
+      <c r="N10" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="M10" t="s">
+      <c r="O10" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="N10" t="s">
+      <c r="P10" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="P10" t="s">
+      <c r="R10" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="S10" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="R10" t="s">
+      <c r="T10" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="S10" t="s">
+      <c r="U10" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="T10" t="s">
+      <c r="V10" s="0" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3374,64 +3742,70 @@
       <c r="A11" t="s">
         <v>341</v>
       </c>
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="166" t="s">
+        <v>625</v>
+      </c>
+      <c r="C11" s="134" t="s">
+        <v>594</v>
+      </c>
+      <c r="D11" s="106" t="s">
         <v>525</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="E11" s="78" t="s">
         <v>498</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="F11" s="50" t="s">
         <v>470</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="G11" s="22" t="s">
         <v>445</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" s="0" t="s">
         <v>416</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" s="0" t="s">
         <v>416</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" s="0" t="s">
         <v>389</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" s="0" t="s">
         <v>340</v>
       </c>
-      <c r="L11" t="s">
+      <c r="N11" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="M11" t="s">
+      <c r="O11" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="N11" t="s">
+      <c r="P11" s="0" t="s">
         <v>337</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="P11" t="s">
+      <c r="R11" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="S11" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T11" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="S11" t="s">
+      <c r="U11" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="T11" t="s">
+      <c r="V11" s="0" t="s">
         <v>332</v>
       </c>
-      <c r="U11" t="s">
+      <c r="W11" s="0" t="s">
         <v>331</v>
       </c>
     </row>
@@ -3439,76 +3813,82 @@
       <c r="A12" t="s">
         <v>351</v>
       </c>
-      <c r="B12" s="107" t="s">
+      <c r="B12" s="167" t="s">
+        <v>626</v>
+      </c>
+      <c r="C12" s="135" t="s">
+        <v>595</v>
+      </c>
+      <c r="D12" s="107" t="s">
         <v>526</v>
       </c>
-      <c r="C12" s="79" t="s">
+      <c r="E12" s="79" t="s">
         <v>499</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="F12" s="51" t="s">
         <v>471</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="G12" s="23" t="s">
         <v>446</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="L12" t="s">
+      <c r="N12" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="M12" t="s">
+      <c r="O12" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="N12" t="s">
+      <c r="P12" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="P12" t="s">
+      <c r="R12" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="S12" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="R12" t="s">
+      <c r="T12" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="S12" t="s">
+      <c r="U12" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="T12" t="s">
+      <c r="V12" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="U12" t="s">
+      <c r="W12" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="V12" t="s">
+      <c r="X12" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="W12" s="4" t="s">
+      <c r="Y12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Z12" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="AA12" s="0" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3516,79 +3896,85 @@
       <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="108" t="s">
+      <c r="B13" s="168" t="s">
+        <v>627</v>
+      </c>
+      <c r="C13" s="136" t="s">
+        <v>596</v>
+      </c>
+      <c r="D13" s="108" t="s">
         <v>527</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="E13" s="80" t="s">
         <v>500</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="F13" s="52" t="s">
         <v>472</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="G13" s="24" t="s">
         <v>447</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" s="0" t="s">
         <v>418</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I13" s="0" t="s">
         <v>418</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" s="0" t="s">
         <v>391</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="L13" t="s">
+      <c r="N13" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="M13" t="s">
+      <c r="O13" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="P13" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="Q13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P13" t="s">
+      <c r="R13" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="S13" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="R13" t="s">
+      <c r="T13" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="S13" t="s">
+      <c r="U13" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="T13" t="s">
+      <c r="V13" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="U13" t="s">
+      <c r="W13" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="V13" t="s">
+      <c r="X13" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="W13" t="s">
+      <c r="Y13" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Z13" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="AA13" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AB13" s="0" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3596,79 +3982,85 @@
       <c r="A14" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="109" t="s">
+      <c r="B14" s="169" t="s">
+        <v>628</v>
+      </c>
+      <c r="C14" s="137" t="s">
+        <v>597</v>
+      </c>
+      <c r="D14" s="109" t="s">
         <v>528</v>
       </c>
-      <c r="C14" s="81" t="s">
+      <c r="E14" s="81" t="s">
         <v>501</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="F14" s="53" t="s">
         <v>473</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="G14" s="25" t="s">
         <v>448</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J14" s="0" t="s">
         <v>392</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K14" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="L14" t="s">
+      <c r="N14" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="M14" t="s">
+      <c r="O14" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="N14" t="s">
+      <c r="P14" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="O14" t="s">
+      <c r="Q14" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="P14" t="s">
+      <c r="R14" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="S14" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T14" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="S14" t="s">
+      <c r="U14" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="T14" t="s">
+      <c r="V14" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="U14" t="s">
+      <c r="W14" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="V14" t="s">
+      <c r="X14" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="W14" t="s">
+      <c r="Y14" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Z14" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="AA14" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AB14" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3676,79 +4068,85 @@
       <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="110" t="s">
+      <c r="B15" s="170" t="s">
+        <v>629</v>
+      </c>
+      <c r="C15" s="138" t="s">
+        <v>598</v>
+      </c>
+      <c r="D15" s="110" t="s">
         <v>267</v>
       </c>
-      <c r="C15" s="82" t="s">
+      <c r="E15" s="82" t="s">
         <v>502</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="F15" s="54" t="s">
         <v>474</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="G15" s="26" t="s">
         <v>449</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="G15" t="s">
+      <c r="I15" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="H15" t="s">
+      <c r="J15" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="I15" t="s">
+      <c r="K15" s="0" t="s">
         <v>366</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" s="0" t="s">
         <v>366</v>
       </c>
-      <c r="K15" t="s">
+      <c r="M15" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="L15" t="s">
+      <c r="N15" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="M15" t="s">
+      <c r="O15" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="N15" t="s">
+      <c r="P15" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="O15" t="s">
+      <c r="Q15" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="P15" t="s">
+      <c r="R15" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="S15" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="R15" t="s">
+      <c r="T15" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="S15" t="s">
+      <c r="U15" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="T15" t="s">
+      <c r="V15" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="U15" t="s">
+      <c r="W15" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="V15" t="s">
+      <c r="X15" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="W15" t="s">
+      <c r="Y15" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Z15" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="AA15" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AB15" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3756,79 +4154,85 @@
       <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="111" t="s">
+      <c r="B16" s="171" t="s">
+        <v>630</v>
+      </c>
+      <c r="C16" s="139" t="s">
+        <v>599</v>
+      </c>
+      <c r="D16" s="111" t="s">
         <v>529</v>
       </c>
-      <c r="C16" s="83" t="s">
+      <c r="E16" s="83" t="s">
         <v>503</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="F16" s="55" t="s">
         <v>475</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="G16" s="27" t="s">
         <v>450</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="G16" t="s">
+      <c r="I16" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="H16" t="s">
+      <c r="J16" s="0" t="s">
         <v>394</v>
       </c>
-      <c r="I16" t="s">
+      <c r="K16" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="K16" t="s">
+      <c r="M16" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="L16" t="s">
+      <c r="N16" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="M16" t="s">
+      <c r="O16" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="N16" t="s">
+      <c r="P16" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="O16" t="s">
+      <c r="Q16" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="P16" t="s">
+      <c r="R16" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="S16" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="R16" t="s">
+      <c r="T16" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="S16" t="s">
+      <c r="U16" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="T16" t="s">
+      <c r="V16" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="U16" t="s">
+      <c r="W16" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="V16" t="s">
+      <c r="X16" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="W16" t="s">
+      <c r="Y16" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Z16" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="AA16" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AB16" s="0" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3836,79 +4240,85 @@
       <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="112" t="s">
+      <c r="B17" s="172" t="s">
+        <v>631</v>
+      </c>
+      <c r="C17" s="140" t="s">
+        <v>600</v>
+      </c>
+      <c r="D17" s="112" t="s">
         <v>476</v>
       </c>
-      <c r="C17" s="84" t="s">
+      <c r="E17" s="84" t="s">
         <v>504</v>
       </c>
-      <c r="D17" s="56" t="s">
+      <c r="F17" s="56" t="s">
         <v>476</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="G17" s="28" t="s">
         <v>451</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" s="0" t="s">
         <v>422</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I17" s="0" t="s">
         <v>422</v>
       </c>
-      <c r="H17" t="s">
+      <c r="J17" s="0" t="s">
         <v>395</v>
       </c>
-      <c r="I17" t="s">
+      <c r="K17" s="0" t="s">
         <v>368</v>
       </c>
-      <c r="J17" t="s">
+      <c r="L17" s="0" t="s">
         <v>368</v>
       </c>
-      <c r="K17" t="s">
+      <c r="M17" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="L17" t="s">
+      <c r="N17" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="M17" t="s">
+      <c r="O17" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="N17" t="s">
+      <c r="P17" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="O17" t="s">
+      <c r="Q17" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="P17" t="s">
+      <c r="R17" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="S17" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="R17" t="s">
+      <c r="T17" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="S17" t="s">
+      <c r="U17" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="T17" t="s">
+      <c r="V17" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="U17" t="s">
+      <c r="W17" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="V17" t="s">
+      <c r="X17" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="W17" t="s">
+      <c r="Y17" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Z17" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="AA17" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AB17" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3916,79 +4326,85 @@
       <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="113" t="s">
+      <c r="B18" s="173" t="s">
+        <v>632</v>
+      </c>
+      <c r="C18" s="141" t="s">
+        <v>601</v>
+      </c>
+      <c r="D18" s="113" t="s">
         <v>530</v>
       </c>
-      <c r="C18" s="85" t="s">
+      <c r="E18" s="85" t="s">
         <v>505</v>
       </c>
-      <c r="D18" s="57" t="s">
+      <c r="F18" s="57" t="s">
         <v>477</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="G18" s="29" t="s">
         <v>452</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="G18" t="s">
+      <c r="I18" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="H18" t="s">
+      <c r="J18" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="I18" t="s">
+      <c r="K18" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L18" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="K18" t="s">
+      <c r="M18" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="L18" t="s">
+      <c r="N18" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="M18" t="s">
+      <c r="O18" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="N18" t="s">
+      <c r="P18" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="O18" t="s">
+      <c r="Q18" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="P18" t="s">
+      <c r="R18" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="S18" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="R18" t="s">
+      <c r="T18" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="S18" t="s">
+      <c r="U18" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="T18" t="s">
+      <c r="V18" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="U18" t="s">
+      <c r="W18" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="V18" t="s">
+      <c r="X18" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="W18" t="s">
+      <c r="Y18" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Z18" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="AA18" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AB18" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3996,79 +4412,85 @@
       <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="174" t="s">
+        <v>633</v>
+      </c>
+      <c r="C19" s="142" t="s">
+        <v>602</v>
+      </c>
+      <c r="D19" s="114" t="s">
         <v>531</v>
       </c>
-      <c r="C19" s="86" t="s">
+      <c r="E19" s="86" t="s">
         <v>506</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="F19" s="58" t="s">
         <v>478</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="G19" s="30" t="s">
         <v>453</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" s="0" t="s">
         <v>423</v>
       </c>
-      <c r="G19" t="s">
+      <c r="I19" s="0" t="s">
         <v>423</v>
       </c>
-      <c r="H19" t="s">
+      <c r="J19" s="0" t="s">
         <v>397</v>
       </c>
-      <c r="I19" t="s">
+      <c r="K19" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="K19" t="s">
+      <c r="M19" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="N19" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="M19" t="s">
+      <c r="O19" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="N19" t="s">
+      <c r="P19" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="O19" t="s">
+      <c r="Q19" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="P19" t="s">
+      <c r="R19" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="S19" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="T19" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="S19" t="s">
+      <c r="U19" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="T19" s="2" t="s">
+      <c r="V19" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="U19" t="s">
+      <c r="W19" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="V19" t="s">
+      <c r="X19" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="W19" t="s">
+      <c r="Y19" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Z19" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="AA19" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AB19" s="0" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4076,79 +4498,85 @@
       <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="115" t="s">
+      <c r="B20" s="175" t="s">
+        <v>634</v>
+      </c>
+      <c r="C20" s="143" t="s">
+        <v>603</v>
+      </c>
+      <c r="D20" s="115" t="s">
         <v>532</v>
       </c>
-      <c r="C20" s="87" t="s">
+      <c r="E20" s="87" t="s">
         <v>507</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="F20" s="59" t="s">
         <v>479</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="G20" s="31" t="s">
         <v>454</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H20" s="0" t="s">
         <v>424</v>
       </c>
-      <c r="G20" t="s">
+      <c r="I20" s="0" t="s">
         <v>424</v>
       </c>
-      <c r="H20" t="s">
+      <c r="J20" s="0" t="s">
         <v>398</v>
       </c>
-      <c r="I20" t="s">
+      <c r="K20" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="J20" t="s">
+      <c r="L20" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="K20" t="s">
+      <c r="M20" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="N20" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="M20" t="s">
+      <c r="O20" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="N20" t="s">
+      <c r="P20" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="O20" t="s">
+      <c r="Q20" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="P20" t="s">
+      <c r="R20" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="S20" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="R20" t="s">
+      <c r="T20" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="S20" t="s">
+      <c r="U20" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="T20" t="s">
+      <c r="V20" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="U20" t="s">
+      <c r="W20" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="V20" t="s">
+      <c r="X20" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="W20" t="s">
+      <c r="Y20" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Z20" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="AA20" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AB20" s="0" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4156,79 +4584,85 @@
       <c r="A21" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="116" t="s">
+      <c r="B21" s="176" t="s">
+        <v>635</v>
+      </c>
+      <c r="C21" s="144" t="s">
+        <v>604</v>
+      </c>
+      <c r="D21" s="116" t="s">
         <v>533</v>
       </c>
-      <c r="C21" s="88" t="s">
+      <c r="E21" s="88" t="s">
         <v>508</v>
       </c>
-      <c r="D21" s="60" t="s">
+      <c r="F21" s="60" t="s">
         <v>480</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="G21" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="G21" t="s">
+      <c r="I21" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" s="0" t="s">
         <v>399</v>
       </c>
-      <c r="I21" t="s">
+      <c r="K21" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="J21" t="s">
+      <c r="L21" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="K21" t="s">
+      <c r="M21" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="L21" t="s">
+      <c r="N21" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="M21" t="s">
+      <c r="O21" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="N21" t="s">
+      <c r="P21" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="O21" t="s">
+      <c r="Q21" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="P21" t="s">
+      <c r="R21" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="S21" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="R21" t="s">
+      <c r="T21" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="S21" t="s">
+      <c r="U21" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="T21" t="s">
+      <c r="V21" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="U21" t="s">
+      <c r="W21" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="V21" t="s">
+      <c r="X21" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="W21" t="s">
+      <c r="Y21" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Z21" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="AA21" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AB21" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4236,79 +4670,85 @@
       <c r="A22" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="117" t="s">
+      <c r="B22" s="177" t="s">
+        <v>636</v>
+      </c>
+      <c r="C22" s="145" t="s">
+        <v>605</v>
+      </c>
+      <c r="D22" s="117" t="s">
         <v>534</v>
       </c>
-      <c r="C22" s="89" t="s">
+      <c r="E22" s="89" t="s">
         <v>509</v>
       </c>
-      <c r="D22" s="61" t="s">
+      <c r="F22" s="61" t="s">
         <v>481</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="G22" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H22" s="0" t="s">
         <v>426</v>
       </c>
-      <c r="G22" t="s">
+      <c r="I22" s="0" t="s">
         <v>426</v>
       </c>
-      <c r="H22" t="s">
+      <c r="J22" s="0" t="s">
         <v>400</v>
       </c>
-      <c r="I22" t="s">
+      <c r="K22" s="0" t="s">
         <v>372</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L22" s="0" t="s">
         <v>372</v>
       </c>
-      <c r="K22" t="s">
+      <c r="M22" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="L22" t="s">
+      <c r="N22" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="M22" t="s">
+      <c r="O22" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="N22" t="s">
+      <c r="P22" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="O22" t="s">
+      <c r="Q22" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="P22" t="s">
+      <c r="R22" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="S22" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="R22" t="s">
+      <c r="T22" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="S22" t="s">
+      <c r="U22" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="T22" t="s">
+      <c r="V22" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="U22" t="s">
+      <c r="W22" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="V22" t="s">
+      <c r="X22" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="W22" t="s">
+      <c r="Y22" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Z22" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="AA22" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AB22" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4316,79 +4756,85 @@
       <c r="A23" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="118" t="s">
+      <c r="B23" s="178" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="90" t="s">
+      <c r="C23" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="62" t="s">
+      <c r="D23" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E23" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N23" t="s">
+      <c r="N23" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="O23" t="s">
+      <c r="O23" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P23" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="Q23" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="R23" t="s">
+      <c r="R23" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="S23" t="s">
+      <c r="S23" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="T23" t="s">
+      <c r="T23" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="U23" t="s">
+      <c r="U23" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="V23" t="s">
+      <c r="V23" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="W23" t="s">
+      <c r="W23" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="X23" t="s">
+      <c r="X23" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Y23" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z23" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA23" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AB23" s="0" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4396,79 +4842,85 @@
       <c r="A24" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="119" t="s">
+      <c r="B24" s="179" t="s">
+        <v>637</v>
+      </c>
+      <c r="C24" s="147" t="s">
+        <v>606</v>
+      </c>
+      <c r="D24" s="119" t="s">
         <v>510</v>
       </c>
-      <c r="C24" s="91" t="s">
+      <c r="E24" s="91" t="s">
         <v>510</v>
       </c>
-      <c r="D24" s="63" t="s">
+      <c r="F24" s="63" t="s">
         <v>482</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="G24" s="35" t="s">
         <v>456</v>
       </c>
-      <c r="F24" t="s">
+      <c r="H24" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="G24" t="s">
+      <c r="I24" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="H24" t="s">
+      <c r="J24" s="0" t="s">
         <v>401</v>
       </c>
-      <c r="I24" t="s">
+      <c r="K24" s="0" t="s">
         <v>373</v>
       </c>
-      <c r="J24" t="s">
+      <c r="L24" s="0" t="s">
         <v>373</v>
       </c>
-      <c r="K24" t="s">
+      <c r="M24" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="L24" t="s">
+      <c r="N24" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="M24" t="s">
+      <c r="O24" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="N24" t="s">
+      <c r="P24" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="O24" t="s">
+      <c r="Q24" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="P24" t="s">
+      <c r="R24" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="S24" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="R24" t="s">
+      <c r="T24" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="S24" t="s">
+      <c r="U24" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="T24" t="s">
+      <c r="V24" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="U24" t="s">
+      <c r="W24" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="V24" t="s">
+      <c r="X24" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="W24" t="s">
+      <c r="Y24" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Z24" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="AA24" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AB24" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4476,79 +4928,85 @@
       <c r="A25" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="120" t="s">
+      <c r="B25" s="180" t="s">
+        <v>457</v>
+      </c>
+      <c r="C25" s="148" t="s">
+        <v>607</v>
+      </c>
+      <c r="D25" s="120" t="s">
         <v>511</v>
       </c>
-      <c r="C25" s="92" t="s">
+      <c r="E25" s="92" t="s">
         <v>511</v>
       </c>
-      <c r="D25" s="64" t="s">
+      <c r="F25" s="64" t="s">
         <v>483</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="G25" s="36" t="s">
         <v>457</v>
       </c>
-      <c r="F25" t="s">
+      <c r="H25" s="0" t="s">
         <v>428</v>
       </c>
-      <c r="G25" t="s">
+      <c r="I25" s="0" t="s">
         <v>428</v>
       </c>
-      <c r="H25" t="s">
+      <c r="J25" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="I25" t="s">
+      <c r="K25" s="0" t="s">
         <v>374</v>
       </c>
-      <c r="J25" t="s">
+      <c r="L25" s="0" t="s">
         <v>374</v>
       </c>
-      <c r="K25" t="s">
+      <c r="M25" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="L25" t="s">
+      <c r="N25" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="M25" t="s">
+      <c r="O25" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="N25" t="s">
+      <c r="P25" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="O25" t="s">
+      <c r="Q25" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="P25" t="s">
+      <c r="R25" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="S25" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="R25" t="s">
+      <c r="T25" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="S25" t="s">
+      <c r="U25" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="T25" t="s">
+      <c r="V25" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="U25" t="s">
+      <c r="W25" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="V25" t="s">
+      <c r="X25" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="W25" t="s">
+      <c r="Y25" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Z25" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="AA25" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AB25" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4556,79 +5014,85 @@
       <c r="A26" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="121" t="s">
+      <c r="B26" s="181" t="s">
+        <v>638</v>
+      </c>
+      <c r="C26" s="149" t="s">
+        <v>608</v>
+      </c>
+      <c r="D26" s="121" t="s">
         <v>535</v>
       </c>
-      <c r="C26" s="93" t="s">
+      <c r="E26" s="93" t="s">
         <v>512</v>
       </c>
-      <c r="D26" s="65" t="s">
+      <c r="F26" s="65" t="s">
         <v>484</v>
       </c>
-      <c r="E26" s="37" t="s">
+      <c r="G26" s="37" t="s">
         <v>458</v>
       </c>
-      <c r="F26" t="s">
+      <c r="H26" s="0" t="s">
         <v>429</v>
       </c>
-      <c r="G26" t="s">
+      <c r="I26" s="0" t="s">
         <v>429</v>
       </c>
-      <c r="H26" t="s">
+      <c r="J26" s="0" t="s">
         <v>402</v>
       </c>
-      <c r="I26" t="s">
+      <c r="K26" s="0" t="s">
         <v>375</v>
       </c>
-      <c r="J26" t="s">
+      <c r="L26" s="0" t="s">
         <v>375</v>
       </c>
-      <c r="K26" t="s">
+      <c r="M26" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="L26" t="s">
+      <c r="N26" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="M26" t="s">
+      <c r="O26" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="N26" t="s">
+      <c r="P26" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="O26" t="s">
+      <c r="Q26" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="P26" t="s">
+      <c r="R26" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="S26" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="R26" t="s">
+      <c r="T26" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="S26" t="s">
+      <c r="U26" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="T26" t="s">
+      <c r="V26" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="U26" t="s">
+      <c r="W26" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="V26" t="s">
+      <c r="X26" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="W26" t="s">
+      <c r="Y26" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Z26" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="AA26" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AB26" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4636,79 +5100,85 @@
       <c r="A27" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="122" t="s">
+      <c r="B27" s="182" t="s">
+        <v>639</v>
+      </c>
+      <c r="C27" s="150" t="s">
+        <v>609</v>
+      </c>
+      <c r="D27" s="122" t="s">
         <v>536</v>
       </c>
-      <c r="C27" s="94" t="s">
+      <c r="E27" s="94" t="s">
         <v>513</v>
       </c>
-      <c r="D27" s="66" t="s">
+      <c r="F27" s="66" t="s">
         <v>485</v>
       </c>
-      <c r="E27" s="38" t="s">
+      <c r="G27" s="38" t="s">
         <v>403</v>
       </c>
-      <c r="F27" t="s">
+      <c r="H27" s="0" t="s">
         <v>430</v>
       </c>
-      <c r="G27" t="s">
+      <c r="I27" s="0" t="s">
         <v>430</v>
       </c>
-      <c r="H27" t="s">
+      <c r="J27" s="0" t="s">
         <v>403</v>
       </c>
-      <c r="I27" t="s">
+      <c r="K27" s="0" t="s">
         <v>376</v>
       </c>
-      <c r="J27" t="s">
+      <c r="L27" s="0" t="s">
         <v>376</v>
       </c>
-      <c r="K27" t="s">
+      <c r="M27" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="L27" t="s">
+      <c r="N27" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="M27" t="s">
+      <c r="O27" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="N27" t="s">
+      <c r="P27" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="O27" t="s">
+      <c r="Q27" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="P27" t="s">
+      <c r="R27" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="S27" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="R27" t="s">
+      <c r="T27" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="S27" t="s">
+      <c r="U27" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="T27" t="s">
+      <c r="V27" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="U27" t="s">
+      <c r="W27" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="V27" t="s">
+      <c r="X27" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="W27" t="s">
+      <c r="Y27" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Z27" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="AA27" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AB27" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4716,79 +5186,85 @@
       <c r="A28" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="123" t="s">
+      <c r="B28" s="183" t="s">
+        <v>640</v>
+      </c>
+      <c r="C28" s="151" t="s">
+        <v>610</v>
+      </c>
+      <c r="D28" s="123" t="s">
         <v>537</v>
       </c>
-      <c r="C28" s="95" t="s">
+      <c r="E28" s="95" t="s">
         <v>514</v>
       </c>
-      <c r="D28" s="67" t="s">
+      <c r="F28" s="67" t="s">
         <v>486</v>
       </c>
-      <c r="E28" s="39" t="s">
+      <c r="G28" s="39" t="s">
         <v>459</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H28" s="0" t="s">
         <v>431</v>
       </c>
-      <c r="G28" t="s">
+      <c r="I28" s="0" t="s">
         <v>431</v>
       </c>
-      <c r="H28" t="s">
+      <c r="J28" s="0" t="s">
         <v>404</v>
       </c>
-      <c r="I28" t="s">
+      <c r="K28" s="0" t="s">
         <v>377</v>
       </c>
-      <c r="J28" t="s">
+      <c r="L28" s="0" t="s">
         <v>377</v>
       </c>
-      <c r="K28" t="s">
+      <c r="M28" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="L28" t="s">
+      <c r="N28" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="M28" t="s">
+      <c r="O28" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="N28" t="s">
+      <c r="P28" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="O28" t="s">
+      <c r="Q28" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="P28" t="s">
+      <c r="R28" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="S28" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="R28" t="s">
+      <c r="T28" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="S28" t="s">
+      <c r="U28" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="T28" t="s">
+      <c r="V28" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="U28" t="s">
+      <c r="W28" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="V28" t="s">
+      <c r="X28" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="W28" t="s">
+      <c r="Y28" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Z28" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="AA28" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="AB28" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4796,295 +5272,325 @@
       <c r="A29" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="124" t="s">
+      <c r="B29" s="184" t="s">
+        <v>641</v>
+      </c>
+      <c r="C29" s="152" t="s">
+        <v>611</v>
+      </c>
+      <c r="D29" s="124" t="s">
         <v>538</v>
       </c>
-      <c r="C29" s="96" t="s">
+      <c r="E29" s="96" t="s">
         <v>515</v>
       </c>
-      <c r="D29" s="68" t="s">
+      <c r="F29" s="68" t="s">
         <v>487</v>
       </c>
-      <c r="E29" s="40" t="s">
+      <c r="G29" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="F29" t="s">
+      <c r="H29" s="0" t="s">
         <v>432</v>
       </c>
-      <c r="G29" t="s">
+      <c r="I29" s="0" t="s">
         <v>432</v>
       </c>
-      <c r="H29" t="s">
+      <c r="J29" s="0" t="s">
         <v>405</v>
       </c>
-      <c r="I29" t="s">
+      <c r="K29" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="J29" t="s">
+      <c r="L29" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="K29" t="s">
+      <c r="M29" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="L29" t="s">
+      <c r="N29" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="M29" t="s">
+      <c r="O29" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="N29" t="s">
+      <c r="P29" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="O29" t="s">
+      <c r="Q29" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="P29" t="s">
+      <c r="R29" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="S29" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="R29" t="s">
+      <c r="T29" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="S29" t="s">
+      <c r="U29" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="T29" t="s">
+      <c r="V29" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="U29" t="s">
+      <c r="W29" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="V29" t="s">
+      <c r="X29" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="W29" t="s">
+      <c r="Y29" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Z29" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="AA29" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="AB29" s="0" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:26" s="124" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="30" s="124" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="124" t="s">
         <v>551</v>
       </c>
-      <c r="B30" s="124" t="s">
+      <c r="B30" s="185" t="s">
+        <v>642</v>
+      </c>
+      <c r="C30" s="153" t="s">
+        <v>612</v>
+      </c>
+      <c r="D30" s="124" t="s">
         <v>550</v>
       </c>
-      <c r="C30" s="124" t="s">
+      <c r="E30" s="124" t="s">
         <v>549</v>
       </c>
-      <c r="D30" s="124" t="s">
+      <c r="F30" s="124" t="s">
         <v>548</v>
       </c>
-      <c r="E30" s="124" t="s">
+      <c r="G30" s="124" t="s">
         <v>547</v>
       </c>
-      <c r="F30" s="124" t="s">
+      <c r="H30" s="124" t="s">
         <v>546</v>
       </c>
-      <c r="G30" s="124" t="s">
+      <c r="I30" s="124" t="s">
         <v>546</v>
       </c>
-      <c r="H30" s="124" t="s">
+      <c r="J30" s="124" t="s">
         <v>182</v>
       </c>
-      <c r="I30" s="124" t="s">
+      <c r="K30" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="J30" s="124" t="s">
+      <c r="L30" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="K30" s="124" t="s">
+      <c r="M30" s="124" t="s">
         <v>545</v>
       </c>
-      <c r="L30" s="124" t="s">
+      <c r="N30" s="124" t="s">
         <v>544</v>
       </c>
-      <c r="M30" s="124" t="s">
+      <c r="O30" s="124" t="s">
         <v>543</v>
       </c>
-      <c r="N30" s="124" t="s">
+      <c r="P30" s="124" t="s">
         <v>542</v>
       </c>
-      <c r="O30" s="124" t="s">
+      <c r="Q30" s="124" t="s">
         <v>541</v>
       </c>
-      <c r="P30" s="124" t="s">
+      <c r="R30" s="124" t="s">
         <v>541</v>
       </c>
-      <c r="Q30" s="124" t="s">
+      <c r="S30" s="124" t="s">
         <v>540</v>
       </c>
-      <c r="R30" s="124" t="s">
+      <c r="T30" s="124" t="s">
         <v>539</v>
       </c>
-      <c r="S30" s="124" t="s">
+      <c r="U30" s="124" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:26" s="124" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="31" s="124" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="124" t="s">
         <v>566</v>
       </c>
-      <c r="B31" s="124" t="s">
+      <c r="B31" s="186" t="s">
+        <v>643</v>
+      </c>
+      <c r="C31" s="154" t="s">
+        <v>613</v>
+      </c>
+      <c r="D31" s="124" t="s">
         <v>565</v>
       </c>
-      <c r="C31" s="124" t="s">
+      <c r="E31" s="124" t="s">
         <v>560</v>
       </c>
-      <c r="D31" s="124" t="s">
+      <c r="F31" s="124" t="s">
         <v>564</v>
       </c>
-      <c r="E31" s="124" t="s">
+      <c r="G31" s="124" t="s">
         <v>564</v>
       </c>
-      <c r="F31" s="124" t="s">
+      <c r="H31" s="124" t="s">
         <v>563</v>
       </c>
-      <c r="G31" s="124" t="s">
+      <c r="I31" s="124" t="s">
         <v>563</v>
-      </c>
-      <c r="H31" s="124" t="s">
-        <v>562</v>
-      </c>
-      <c r="I31" s="124" t="s">
-        <v>562</v>
       </c>
       <c r="J31" s="124" t="s">
         <v>562</v>
       </c>
       <c r="K31" s="124" t="s">
+        <v>562</v>
+      </c>
+      <c r="L31" s="124" t="s">
+        <v>562</v>
+      </c>
+      <c r="M31" s="124" t="s">
         <v>561</v>
       </c>
-      <c r="L31" s="124" t="s">
+      <c r="N31" s="124" t="s">
         <v>560</v>
       </c>
-      <c r="M31" s="124" t="s">
+      <c r="O31" s="124" t="s">
         <v>559</v>
       </c>
-      <c r="N31" s="124" t="s">
+      <c r="P31" s="124" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="32" spans="1:26" s="124" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="32" s="124" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="124" t="s">
         <v>557</v>
       </c>
-      <c r="B32" s="124" t="s">
+      <c r="B32" s="187" t="s">
+        <v>644</v>
+      </c>
+      <c r="C32" s="155" t="s">
         <v>556</v>
       </c>
-      <c r="C32" s="124" t="s">
+      <c r="D32" s="124" t="s">
         <v>556</v>
       </c>
-      <c r="D32" s="124" t="s">
+      <c r="E32" s="124" t="s">
+        <v>556</v>
+      </c>
+      <c r="F32" s="124" t="s">
         <v>555</v>
       </c>
-      <c r="E32" s="124" t="s">
+      <c r="G32" s="124" t="s">
         <v>554</v>
       </c>
-      <c r="F32" s="124" t="s">
+      <c r="H32" s="124" t="s">
         <v>553</v>
       </c>
-      <c r="G32" s="124" t="s">
+      <c r="I32" s="124" t="s">
         <v>553</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="J32" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="I32" s="124" t="s">
+      <c r="K32" s="124" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:26" s="124" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row customFormat="1" ht="16" r="33" s="124" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="124" t="s">
         <v>583</v>
       </c>
-      <c r="B33" s="124" t="s">
+      <c r="B33" s="188" t="s">
+        <v>645</v>
+      </c>
+      <c r="C33" s="156" t="s">
+        <v>614</v>
+      </c>
+      <c r="D33" s="124" t="s">
         <v>582</v>
       </c>
-      <c r="C33" s="124" t="s">
+      <c r="E33" s="124" t="s">
         <v>581</v>
       </c>
-      <c r="D33" s="105" t="s">
+      <c r="F33" s="105" t="s">
         <v>575</v>
       </c>
-      <c r="E33" s="103" t="s">
+      <c r="G33" s="103" t="s">
         <v>580</v>
-      </c>
-      <c r="F33" s="124" t="s">
-        <v>579</v>
-      </c>
-      <c r="G33" s="124" t="s">
-        <v>579</v>
       </c>
       <c r="H33" s="124" t="s">
         <v>579</v>
       </c>
       <c r="I33" s="124" t="s">
+        <v>579</v>
+      </c>
+      <c r="J33" s="124" t="s">
+        <v>579</v>
+      </c>
+      <c r="K33" s="124" t="s">
         <v>578</v>
       </c>
-      <c r="J33" s="124" t="s">
+      <c r="L33" s="124" t="s">
         <v>577</v>
       </c>
-      <c r="K33" s="124" t="s">
+      <c r="M33" s="124" t="s">
         <v>577</v>
       </c>
-      <c r="L33" s="124" t="s">
+      <c r="N33" s="124" t="s">
         <v>576</v>
       </c>
-      <c r="M33" s="124" t="s">
+      <c r="O33" s="124" t="s">
         <v>575</v>
       </c>
-      <c r="N33" s="124" t="s">
+      <c r="P33" s="124" t="s">
         <v>574</v>
       </c>
-      <c r="O33" s="124" t="s">
+      <c r="Q33" s="124" t="s">
         <v>573</v>
       </c>
-      <c r="P33" s="124" t="s">
+      <c r="R33" s="124" t="s">
         <v>573</v>
       </c>
-      <c r="Q33" s="124" t="s">
+      <c r="S33" s="124" t="s">
         <v>572</v>
       </c>
-      <c r="R33" s="124" t="s">
+      <c r="T33" s="124" t="s">
         <v>571</v>
       </c>
-      <c r="S33" s="124" t="s">
+      <c r="U33" s="124" t="s">
         <v>570</v>
       </c>
-      <c r="T33" s="124" t="s">
+      <c r="V33" s="124" t="s">
         <v>570</v>
       </c>
-      <c r="U33" s="124" t="s">
+      <c r="W33" s="124" t="s">
         <v>569</v>
       </c>
-      <c r="V33" s="124" t="s">
+      <c r="X33" s="124" t="s">
         <v>568</v>
       </c>
-      <c r="W33" s="124" t="s">
+      <c r="Y33" s="124" t="s">
         <v>567</v>
       </c>
-      <c r="X33" s="124" t="s">
+      <c r="Z33" s="124" t="s">
         <v>567</v>
       </c>
-      <c r="Y33" s="8" t="s">
+      <c r="AA33" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="Z33" s="8" t="s">
+      <c r="AB33" s="8" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>